--- a/Files/Vaccine_April 19, 2002.xlsx
+++ b/Files/Vaccine_April 19, 2002.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">$12.20</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">$15.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis Bi </t>
+    <t xml:space="preserve">Hepatitis B-Hibi </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">$36.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPreservative Free PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Preservative Free Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">$10.30</t>
   </si>
   <si>
-    <t xml:space="preserve">251 dose TipLok 23G</t>
+    <t xml:space="preserve">25 x 1 dose TipLok 23G</t>
   </si>
   <si>
     <t xml:space="preserve">$10.50</t>
   </si>
   <si>
-    <t xml:space="preserve">251 dose TipLok 25G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 dose TipLok</t>
+    <t xml:space="preserve">25 x 1 dose TipLok 25G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x1 dose TipLok</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">$21.40</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B 2 doseAdolescent (11-15)</t>
+    <t xml:space="preserve">Hepatitis B 2 dose Adolescent (11-15)</t>
   </si>
   <si>
     <t xml:space="preserve">10 x 1 dose vials
@@ -316,7 +316,7 @@
     <t xml:space="preserve">$15.25</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">$28.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>

--- a/Files/Vaccine_April 19, 2002.xlsx
+++ b/Files/Vaccine_April 19, 2002.xlsx
@@ -98,8 +98,7 @@
     <t xml:space="preserve">IPOL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dose vial
-10 x 1 dose syringe</t>
+    <t xml:space="preserve">10 dose vial 10 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.80</t>
@@ -132,8 +131,7 @@
     <t xml:space="preserve">VAQTA</t>
   </si>
   <si>
-    <t xml:space="preserve">5 x 1 dose vial
-5 x 1 dose syringes</t>
+    <t xml:space="preserve">5 x 1 dose vial 5 x 1 dose syringes</t>
   </si>
   <si>
     <t xml:space="preserve">$11.15</t>
@@ -169,8 +167,7 @@
     <t xml:space="preserve">Hepatitis A Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">5 x 1 dose vials
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">5 x 1 dose vials 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$17.20</t>
@@ -179,9 +176,7 @@
     <t xml:space="preserve">$51.71</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vial
-1 dose TIP-LOK
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">1 dose vial 1 dose TIP-LOK 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$16.82</t>
@@ -196,8 +191,7 @@
     <t xml:space="preserve">Twinris</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1dose vial
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">10 x 1dose vial 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$36.16</t>
@@ -245,8 +239,7 @@
     <t xml:space="preserve">Hepatitis B 2 dose Adolescent (11-15)</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials
-5 x 1 dose syringes</t>
+    <t xml:space="preserve">10 x 1 dose vials 5 x 1 dose syringes</t>
   </si>
   <si>
     <t xml:space="preserve">$24.25</t>
@@ -255,9 +248,7 @@
     <t xml:space="preserve">Hepatitis B-Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials
-10 x 3 dose vial
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">10 x 1 dose vials 10 x 3 dose vial 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$23.75</t>
@@ -269,9 +260,7 @@
     <t xml:space="preserve">ENGERIX-B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 1 dose vial
-5 x 1 dose Tiplok
-25 x 1 dose Tiplok</t>
+    <t xml:space="preserve">1 x 1 dose vial 5 x 1 dose Tiplok 25 x 1 dose Tiplok</t>
   </si>
   <si>
     <t xml:space="preserve">$23.25</t>
